--- a/biology/Botanique/Céphalium/Céphalium.xlsx
+++ b/biology/Botanique/Céphalium/Céphalium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9phalium</t>
+          <t>Céphalium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le céphalium est une touffe de poils, une structure laineuse parfois vivement colorée qui apparaît sur certaines espèces de cactus adultes et d'une certaine taille.
 Il supporte les boutons floraux et les fruits. Sur certaines espèces (Melocactus), il peut atteindre 50 cm de haut, ce qui leur vaut le nom de "tête à l'anglais".
